--- a/biology/Botanique/Phyllanthus_niruri/Phyllanthus_niruri.xlsx
+++ b/biology/Botanique/Phyllanthus_niruri/Phyllanthus_niruri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllanthus niruri est une espèce de plantes à fleurs de la famille des Phyllanthaceae. Elle croît dans les zones côtières des régions tropicales. Elle est proche des euphorbes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllanthus niruri est une petite herbe annuelle à tiges dressées, de 30 à 60 cm de hauteur. Après écorchure, la tige laisse échapper un latex translucide. Elle se ramifie rapidement pour laisser place à des sortes de tiges composées à folioles alternes. Les feuilles, à petit pétiole, sont alternes, simples, fragiles, glauques. Les fleurs femelles, petites, 2 mm de long, blanchâtres au cœur jaune, possèdent 5 sépales axillaires. Les fleurs mâles, 0,5 mm de long, possèdent 3 étamines sessiles.
 </t>
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllanthus niruri appartient à la famille des Phyllanthaceae.
 </t>
@@ -573,7 +589,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété Phyllanthus niruri var. amarus permettrait de lutter contre les maladies de peau[réf. nécessaire]. Elle est souvent utilisée dans le traitement de la constipation, la diarrhée et d’autres troubles digestifs[réf. nécessaire]. Elle est aussi diurétique et a des effets positifs sur la rate, le rein et le foie[réf. nécessaire]. Elle joue par conséquent un rôle dans le traitement de plusieurs hépatites[réf. nécessaire]. 
 </t>
@@ -604,14 +622,16 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (7 août 2014)[2] et World Checklist of Selected Plant Families (WCSP)  (7 août 2014)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 août 2014) et World Checklist of Selected Plant Families (WCSP)  (7 août 2014) :
 sous-espèce Phyllanthus niruri subsp. lathyroides (Kunth) G.L.Webster (1955)
 sous-espèce Phyllanthus niruri subsp. niruri
-Selon The Plant List            (7 août 2014)[1] :
+Selon The Plant List            (7 août 2014) :
 sous-espèce Phyllanthus niruri subsp. lathyroides (Kunth) G.L.Webster
-Selon Tropicos                                           (7 août 2014)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Phyllanthus niruri subsp. lathyroides (Kunth) G.L. Webster
 sous-espèce Phyllanthus niruri subsp. niruri
 variété Phyllanthus niruri var. amarus (Schumach. &amp; Thonn.) Leandri
